--- a/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
+++ b/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmalaible/Desktop/Fernando_Lab/Sequencing/16s Sequencing/12_16_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C3E3E2-2CF2-8E42-ADB3-974AE3470DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31777C0-86B1-7D4F-B586-67683608F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1500" windowWidth="26400" windowHeight="15940" xr2:uid="{A88601D5-2D21-9943-B6C7-C1BFBBEC457C}"/>
+    <workbookView xWindow="2020" yWindow="840" windowWidth="26400" windowHeight="15940" xr2:uid="{A88601D5-2D21-9943-B6C7-C1BFBBEC457C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC0A6F1-DCAF-D04E-9B95-6FD4301E40C4}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
+++ b/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31777C0-86B1-7D4F-B586-67683608F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBEC729-3E8B-BF42-9FD2-54B50F30DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="840" windowWidth="26400" windowHeight="15940" xr2:uid="{A88601D5-2D21-9943-B6C7-C1BFBBEC457C}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC0A6F1-DCAF-D04E-9B95-6FD4301E40C4}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
+++ b/Data_Files/Phileo_Methane_ID_Jim_Samples_Plate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBEC729-3E8B-BF42-9FD2-54B50F30DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2ED7E-CC63-774B-9BFD-E5DD5B1B14FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="840" windowWidth="26400" windowHeight="15940" xr2:uid="{A88601D5-2D21-9943-B6C7-C1BFBBEC457C}"/>
+    <workbookView xWindow="2020" yWindow="640" windowWidth="26400" windowHeight="15940" xr2:uid="{A88601D5-2D21-9943-B6C7-C1BFBBEC457C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC0A6F1-DCAF-D04E-9B95-6FD4301E40C4}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
